--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_16-17.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_16-17.xlsx
@@ -59,6 +59,9 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
+  </si>
+  <si>
     <t>CEFAZONE 1 GM VIAL</t>
   </si>
   <si>
@@ -170,6 +173,12 @@
     <t xml:space="preserve">بلاستر 2سم </t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>40:0</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -186,6 +195,12 @@
   </si>
   <si>
     <t>شاش 10 سم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>28:0</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
@@ -929,17 +944,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -947,7 +962,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -955,17 +970,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>258</v>
+        <v>96</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -973,7 +988,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -981,17 +996,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1007,17 +1022,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>21</v>
+        <v>248</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
-        <v>0.33000000000000002</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1033,17 +1048,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1051,7 +1066,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1059,17 +1074,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1077,7 +1092,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1085,17 +1100,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1111,17 +1126,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
-        <v>0.67000000000000004</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1129,7 +1144,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1137,13 +1152,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
@@ -1163,17 +1178,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
-        <v>1</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1181,7 +1196,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1189,17 +1204,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>1475</v>
+        <v>34</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1215,17 +1230,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>75</v>
+        <v>1475</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1247,7 +1262,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
@@ -1267,17 +1282,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1293,17 +1308,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>0.5</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1319,13 +1334,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
@@ -1345,17 +1360,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>221.16</v>
+        <v>51</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1377,11 +1392,11 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>58</v>
+        <v>221.16</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1397,17 +1412,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1415,7 +1430,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1423,17 +1438,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1449,17 +1464,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>28.710000000000001</v>
+        <v>192</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1475,13 +1490,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>18</v>
+        <v>28.710000000000001</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
@@ -1493,7 +1508,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1501,17 +1516,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1519,7 +1534,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1527,13 +1542,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
@@ -1545,7 +1560,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1553,7 +1568,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -1571,7 +1586,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1579,13 +1594,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
@@ -1605,17 +1620,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1623,7 +1638,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1631,17 +1646,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1649,7 +1664,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1657,17 +1672,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1683,17 +1698,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1701,7 +1716,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1709,13 +1724,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
@@ -1735,17 +1750,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1753,7 +1768,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1761,17 +1776,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1787,7 +1802,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -1801,37 +1816,115 @@
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
-      <c r="K43" s="11">
-        <v>3879.3699999999999</v>
-      </c>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-    </row>
-    <row r="44" ht="17.25" customHeight="1">
-      <c t="s" r="A44" s="12">
-        <v>65</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c t="s" r="F44" s="13">
+      <c r="A43" s="6">
+        <v>40</v>
+      </c>
+      <c t="s" r="B43" s="7">
         <v>66</v>
       </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="14"/>
-      <c t="s" r="I44" s="15">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c t="s" r="H43" s="8">
         <v>67</v>
       </c>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9">
+        <v>25</v>
+      </c>
+      <c r="M43" s="9"/>
+      <c r="N43" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" ht="24.75" customHeight="1">
+      <c r="A44" s="6">
+        <v>41</v>
+      </c>
+      <c t="s" r="B44" s="7">
+        <v>68</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c t="s" r="H44" s="8">
+        <v>57</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="9">
+        <v>15</v>
+      </c>
+      <c r="M44" s="9"/>
+      <c r="N44" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" ht="25.5" customHeight="1">
+      <c r="A45" s="6">
+        <v>42</v>
+      </c>
+      <c t="s" r="B45" s="7">
+        <v>69</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c t="s" r="H45" s="8">
+        <v>57</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="9">
+        <v>20</v>
+      </c>
+      <c r="M45" s="9"/>
+      <c r="N45" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="K46" s="11">
+        <v>3971.3699999999999</v>
+      </c>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="12">
+        <v>70</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c t="s" r="F47" s="13">
+        <v>71</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="14"/>
+      <c t="s" r="I47" s="15">
+        <v>72</v>
+      </c>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="128">
+  <mergeCells count="137">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1956,10 +2049,19 @@
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="I47:N47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
